--- a/lstm/backtesting/model1/prob_matrix.xlsx
+++ b/lstm/backtesting/model1/prob_matrix.xlsx
@@ -447,18 +447,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.4953703703703703</v>
+        <v>0.4553191489361702</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5546075085324232</v>
+        <v>0.5420200462606014</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.5046296296296297</v>
+        <v>0.5446808510638298</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4453924914675768</v>
+        <v>0.4579799537393986</v>
       </c>
     </row>
   </sheetData>

--- a/lstm/backtesting/model1/prob_matrix.xlsx
+++ b/lstm/backtesting/model1/prob_matrix.xlsx
@@ -447,18 +447,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.4553191489361702</v>
+        <v>0.4508050089445438</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5420200462606014</v>
+        <v>0.5394871794871795</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.5446808510638298</v>
+        <v>0.5491949910554561</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4579799537393986</v>
+        <v>0.4605128205128205</v>
       </c>
     </row>
   </sheetData>
